--- a/models.xlsx
+++ b/models.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="99">
   <si>
     <t xml:space="preserve">modelPath</t>
   </si>
@@ -115,9 +115,6 @@
     <t xml:space="preserve">measuredPrecision</t>
   </si>
   <si>
-    <t xml:space="preserve">links</t>
-  </si>
-  <si>
     <t xml:space="preserve">/tmp/tilesets/TilesetWithDiscreteLOD</t>
   </si>
   <si>
@@ -197,9 +194,6 @@
   </si>
   <si>
     <t xml:space="preserve">Tactics</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ { "protocol": "3dtiles", "url": "string" }, { "protocol": "3dtiles", "url": "string" } ]</t>
   </si>
   <si>
     <t xml:space="preserve">dc61d24d-7426-4490-a48f-06c13be98b85</t>
@@ -333,7 +327,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="@"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -368,12 +362,6 @@
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -431,7 +419,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -449,10 +437,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -533,10 +517,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AF1048576"/>
+  <dimension ref="A1:AMJ4"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="AA1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="AF2" activeCellId="0" sqref="AF2"/>
+      <selection pane="topLeft" activeCell="AE1" activeCellId="0" sqref="AE1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -566,10 +550,9 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="29" min="29" style="0" width="23.62"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="30" min="30" style="0" width="21.09"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="31" min="31" style="0" width="18"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="32" min="32" style="0" width="70.04"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="33" min="33" style="0" width="55.93"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1014" min="34" style="0" width="8.53"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1015" style="0" width="9.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="32" min="32" style="0" width="55.93"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1013" min="33" style="0" width="8.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1014" style="0" width="9.14"/>
   </cols>
   <sheetData>
     <row r="1" s="3" customFormat="true" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -666,306 +649,296 @@
       <c r="AE1" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="AF1" s="2" t="s">
-        <v>31</v>
-      </c>
+      <c r="AMJ1" s="0"/>
     </row>
     <row r="2" s="3" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="C2" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="D2" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="E2" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="F2" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="G2" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="G2" s="3" t="s">
-        <v>38</v>
-      </c>
       <c r="H2" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="K2" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="I2" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="J2" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="K2" s="3" t="s">
+      <c r="L2" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="L2" s="3" t="s">
+      <c r="M2" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="M2" s="3" t="s">
+      <c r="N2" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="N2" s="3" t="s">
+      <c r="O2" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="O2" s="3" t="s">
+      <c r="P2" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="P2" s="3" t="s">
+      <c r="Q2" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="Q2" s="3" t="s">
+      <c r="R2" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="R2" s="3" t="s">
+      <c r="S2" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="S2" s="3" t="s">
+      <c r="T2" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="T2" s="3" t="s">
+      <c r="U2" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="U2" s="3" t="s">
+      <c r="V2" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="W2" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="X2" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="V2" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="W2" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="X2" s="3" t="s">
+      <c r="Y2" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="Y2" s="3" t="s">
+      <c r="Z2" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="Z2" s="3" t="s">
+      <c r="AA2" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="AA2" s="3" t="s">
+      <c r="AB2" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="AB2" s="3" t="s">
+      <c r="AC2" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="AC2" s="3" t="s">
+      <c r="AD2" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="AD2" s="3" t="s">
+      <c r="AE2" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="AE2" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="AF2" s="3" t="s">
-        <v>59</v>
-      </c>
+      <c r="AMJ2" s="0"/>
     </row>
     <row r="3" s="3" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B3" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="E3" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="F3" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="G3" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="L3" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="M3" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="N3" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="G3" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="H3" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="I3" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="J3" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="K3" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="L3" s="3" t="s">
+      <c r="O3" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="M3" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="N3" s="3" t="s">
+      <c r="P3" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="O3" s="3" t="s">
+      <c r="Q3" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="P3" s="3" t="s">
+      <c r="R3" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="Q3" s="3" t="s">
+      <c r="S3" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="R3" s="3" t="s">
+      <c r="T3" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="S3" s="3" t="s">
+      <c r="U3" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="T3" s="3" t="s">
+      <c r="V3" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="W3" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="X3" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="U3" s="3" t="s">
+      <c r="Y3" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="V3" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="W3" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="X3" s="3" t="s">
+      <c r="Z3" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="Y3" s="3" t="s">
+      <c r="AA3" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="Z3" s="3" t="s">
+      <c r="AB3" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="AA3" s="3" t="s">
+      <c r="AC3" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="AB3" s="3" t="s">
+      <c r="AD3" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="AC3" s="3" t="s">
+      <c r="AE3" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="AD3" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="AE3" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="AF3" s="5" t="s">
-        <v>59</v>
-      </c>
+      <c r="AMJ3" s="0"/>
     </row>
     <row r="4" s="3" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B4" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="D4" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="E4" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="F4" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="G4" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="J4" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="L4" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="E4" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="F4" s="3" t="s">
+      <c r="M4" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="N4" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="G4" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="H4" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="I4" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="J4" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="K4" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="L4" s="3" t="s">
+      <c r="O4" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="M4" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="N4" s="3" t="s">
+      <c r="P4" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q4" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="O4" s="3" t="s">
+      <c r="R4" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="P4" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="Q4" s="3" t="s">
+      <c r="S4" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="R4" s="3" t="s">
+      <c r="T4" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="S4" s="3" t="s">
+      <c r="U4" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="T4" s="3" t="s">
+      <c r="V4" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="W4" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="X4" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="U4" s="3" t="s">
+      <c r="Y4" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="V4" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="W4" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="X4" s="3" t="s">
+      <c r="Z4" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="Y4" s="3" t="s">
+      <c r="AA4" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="Z4" s="3" t="s">
+      <c r="AB4" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="AC4" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="AA4" s="3" t="s">
+      <c r="AD4" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="AB4" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="AC4" s="3" t="s">
+      <c r="AE4" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="AD4" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="AE4" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="AF4" s="5" t="s">
-        <v>59</v>
-      </c>
+      <c r="AMJ4" s="0"/>
     </row>
-    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>

--- a/models.xlsx
+++ b/models.xlsx
@@ -20,11 +20,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="101">
   <si>
     <t xml:space="preserve">modelPath</t>
   </si>
   <si>
+    <t xml:space="preserve">tilesetFilename</t>
+  </si>
+  <si>
     <t xml:space="preserve">identifier</t>
   </si>
   <si>
@@ -116,6 +119,9 @@
   </si>
   <si>
     <t xml:space="preserve">/tmp/tilesets/TilesetWithDiscreteLOD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tileset.json</t>
   </si>
   <si>
     <t xml:space="preserve">b6645aa5-4134-48f3-8cbc-faa0518c21bb</t>
@@ -517,49 +523,50 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AMJ4"/>
+  <dimension ref="A1:AF4"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="AA1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="AE1" activeCellId="0" sqref="AE1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="31.89"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="37.74"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="9.72"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="11.51"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="9.72"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="9.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="7.64"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="8" style="0" width="20.65"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="29.03"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="12" style="0" width="13.59"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="14.37"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="8.53"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="16" style="0" width="11.83"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="0" width="12.6"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="0" width="12.49"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="0" width="8.41"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="22" style="0" width="20.65"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="24" style="0" width="17.01"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="25" min="25" style="0" width="13.15"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="26" style="0" width="16.68"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="27" min="27" style="0" width="17.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="28" min="28" style="0" width="21.31"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="29" min="29" style="0" width="23.62"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="30" min="30" style="0" width="21.09"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="31" min="31" style="0" width="18"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="32" min="32" style="0" width="55.93"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1013" min="33" style="0" width="8.53"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1014" style="0" width="9.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="29.21"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="12.78"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="37.74"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="9.72"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="11.51"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="9.72"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="9.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="7.64"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="9" style="0" width="20.65"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="29.03"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="13" style="0" width="13.59"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="14.37"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="8.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="17" style="0" width="11.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="0" width="12.6"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="0" width="12.49"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="22" style="0" width="8.41"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="23" style="0" width="20.65"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="25" min="25" style="0" width="17.01"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="26" style="0" width="13.15"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="27" min="27" style="0" width="16.68"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="28" min="28" style="0" width="17.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="29" min="29" style="0" width="21.31"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="30" min="30" style="0" width="23.62"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="31" min="31" style="0" width="21.09"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="32" min="32" style="0" width="18"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="33" min="33" style="0" width="9.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1014" min="34" style="0" width="8.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1015" style="0" width="9.14"/>
   </cols>
   <sheetData>
     <row r="1" s="3" customFormat="true" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
@@ -649,295 +656,303 @@
       <c r="AE1" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="AMJ1" s="0"/>
+      <c r="AF1" s="2" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="2" s="3" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="H2" s="4" t="s">
         <v>38</v>
       </c>
+      <c r="H2" s="3" t="s">
+        <v>39</v>
+      </c>
       <c r="I2" s="4" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="J2" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="K2" s="3" t="s">
-        <v>39</v>
+        <v>40</v>
+      </c>
+      <c r="K2" s="4" t="s">
+        <v>40</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="M2" s="3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="N2" s="3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="O2" s="3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="P2" s="3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="Q2" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="R2" s="3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="S2" s="3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="T2" s="3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="U2" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="V2" s="4" t="s">
-        <v>38</v>
+        <v>50</v>
+      </c>
+      <c r="V2" s="3" t="s">
+        <v>51</v>
       </c>
       <c r="W2" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="X2" s="3" t="s">
-        <v>50</v>
+        <v>40</v>
+      </c>
+      <c r="X2" s="4" t="s">
+        <v>40</v>
       </c>
       <c r="Y2" s="3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="Z2" s="3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="AA2" s="3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="AB2" s="3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AC2" s="3" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AD2" s="3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AE2" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="AMJ2" s="0"/>
+        <v>58</v>
+      </c>
+      <c r="AF2" s="3" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="3" s="3" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>58</v>
+        <v>33</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="H3" s="4" t="s">
-        <v>38</v>
+        <v>64</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>39</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="J3" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="K3" s="3" t="s">
-        <v>39</v>
+        <v>40</v>
+      </c>
+      <c r="K3" s="4" t="s">
+        <v>40</v>
       </c>
       <c r="L3" s="3" t="s">
-        <v>63</v>
+        <v>41</v>
       </c>
       <c r="M3" s="3" t="s">
-        <v>41</v>
+        <v>65</v>
       </c>
       <c r="N3" s="3" t="s">
-        <v>64</v>
+        <v>43</v>
       </c>
       <c r="O3" s="3" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="P3" s="3" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="Q3" s="3" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="R3" s="3" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="S3" s="3" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="T3" s="3" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="U3" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="V3" s="4" t="s">
-        <v>38</v>
+        <v>72</v>
+      </c>
+      <c r="V3" s="3" t="s">
+        <v>73</v>
       </c>
       <c r="W3" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="X3" s="3" t="s">
-        <v>72</v>
+        <v>40</v>
+      </c>
+      <c r="X3" s="4" t="s">
+        <v>40</v>
       </c>
       <c r="Y3" s="3" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Z3" s="3" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AA3" s="3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AB3" s="3" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC3" s="3" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AD3" s="3" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AE3" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="AMJ3" s="0"/>
+        <v>80</v>
+      </c>
+      <c r="AF3" s="3" t="s">
+        <v>81</v>
+      </c>
     </row>
     <row r="4" s="3" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>80</v>
+        <v>33</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E4" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="J4" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="K4" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="L4" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="M4" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="N4" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="O4" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="P4" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q4" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="F4" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="H4" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="I4" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="J4" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="K4" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="L4" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="M4" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="N4" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="O4" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="P4" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="Q4" s="3" t="s">
-        <v>87</v>
-      </c>
       <c r="R4" s="3" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="S4" s="3" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="T4" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="U4" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="V4" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="W4" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="X4" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y4" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="Z4" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="AA4" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="AB4" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="AC4" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="U4" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="V4" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="W4" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="X4" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="Y4" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="Z4" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="AA4" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="AB4" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="AC4" s="3" t="s">
-        <v>96</v>
-      </c>
       <c r="AD4" s="3" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AE4" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="AMJ4" s="0"/>
+        <v>99</v>
+      </c>
+      <c r="AF4" s="3" t="s">
+        <v>100</v>
+      </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/models.xlsx
+++ b/models.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="102">
   <si>
     <t xml:space="preserve">modelPath</t>
   </si>
@@ -118,91 +118,94 @@
     <t xml:space="preserve">measuredPrecision</t>
   </si>
   <si>
+    <t xml:space="preserve">/home/libotadmin/NewYork</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tileset.json</t>
+  </si>
+  <si>
+    <t xml:space="preserve">b6645aa5-4134-50f3-8cbc-faa0518c21bb</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">open-source</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Berkshire</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Som</t>
+  </si>
+  <si>
+    <t xml:space="preserve">test</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-04-26T07:09:20.560Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">POINT(20.0924758 72.7341809)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chicken</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IDFMU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cordoba</t>
+  </si>
+  <si>
+    <t xml:space="preserve">red</t>
+  </si>
+  <si>
+    <t xml:space="preserve">white</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pre-emptive</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Central</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Baby</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cotton</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cape</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Generic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">District</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Guam</t>
+  </si>
+  <si>
+    <t xml:space="preserve">iterate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cyan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">deposit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tactics</t>
+  </si>
+  <si>
     <t xml:space="preserve">/tmp/tilesets/TilesetWithDiscreteLOD</t>
   </si>
   <si>
-    <t xml:space="preserve">tileset.json</t>
-  </si>
-  <si>
-    <t xml:space="preserve">b6645aa5-4134-48f3-8cbc-faa0518c21bb</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GB</t>
-  </si>
-  <si>
-    <t xml:space="preserve">open-source</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Berkshire</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Som</t>
-  </si>
-  <si>
-    <t xml:space="preserve">test</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2021-04-26T07:09:20.560Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">POINT(20.0924758 72.7341809)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chicken</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IDFMU</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cordoba</t>
-  </si>
-  <si>
-    <t xml:space="preserve">red</t>
-  </si>
-  <si>
-    <t xml:space="preserve">white</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Maine</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pre-emptive</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Central</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Baby</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cotton</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cape</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Generic</t>
-  </si>
-  <si>
-    <t xml:space="preserve">District</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Guam</t>
-  </si>
-  <si>
-    <t xml:space="preserve">iterate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cyan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">deposit</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tactics</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dc61d24d-7426-4490-a48f-06c13be98b85</t>
+    <t xml:space="preserve">Dc61d24d-7426-5090-a48f-06c13be98b85</t>
   </si>
   <si>
     <t xml:space="preserve">invoice</t>
@@ -268,7 +271,7 @@
     <t xml:space="preserve">monitor</t>
   </si>
   <si>
-    <t xml:space="preserve">deda97ad-0912-4524-929c-02beba91c01d</t>
+    <t xml:space="preserve">Deda97ad-0912-5024-929c-02beba91c01d</t>
   </si>
   <si>
     <t xml:space="preserve">portal</t>
@@ -425,7 +428,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -440,6 +443,10 @@
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
@@ -523,10 +530,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AF4"/>
+  <dimension ref="A1:AF5"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="C5" activeCellId="0" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -660,8 +667,8 @@
         <v>31</v>
       </c>
     </row>
-    <row r="2" s="3" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="3" t="s">
+    <row r="2" s="3" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="4" t="s">
         <v>32</v>
       </c>
       <c r="B2" s="3" t="s">
@@ -685,13 +692,13 @@
       <c r="H2" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="I2" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="J2" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="K2" s="4" t="s">
+      <c r="I2" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="K2" s="5" t="s">
         <v>40</v>
       </c>
       <c r="L2" s="3" t="s">
@@ -727,10 +734,10 @@
       <c r="V2" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="W2" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="X2" s="4" t="s">
+      <c r="W2" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="X2" s="5" t="s">
         <v>40</v>
       </c>
       <c r="Y2" s="3" t="s">
@@ -760,198 +767,296 @@
     </row>
     <row r="3" s="3" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="3" t="s">
-        <v>32</v>
+        <v>60</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>33</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="H3" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="I3" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="J3" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="K3" s="4" t="s">
+      <c r="I3" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="J3" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="K3" s="5" t="s">
         <v>40</v>
       </c>
       <c r="L3" s="3" t="s">
         <v>41</v>
       </c>
       <c r="M3" s="3" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="N3" s="3" t="s">
         <v>43</v>
       </c>
       <c r="O3" s="3" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="P3" s="3" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="Q3" s="3" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="R3" s="3" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="S3" s="3" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="T3" s="3" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="U3" s="3" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="V3" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="W3" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="X3" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="W3" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="X3" s="5" t="s">
         <v>40</v>
       </c>
       <c r="Y3" s="3" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Z3" s="3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AA3" s="3" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB3" s="3" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AC3" s="3" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AD3" s="3" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AE3" s="3" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AF3" s="3" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
-    <row r="4" s="3" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="3" t="s">
+    <row r="4" s="3" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="4" t="s">
         <v>32</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>33</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H4" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="I4" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="J4" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="K4" s="4" t="s">
+      <c r="I4" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="J4" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="K4" s="5" t="s">
         <v>40</v>
       </c>
       <c r="L4" s="3" t="s">
         <v>41</v>
       </c>
       <c r="M4" s="3" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="N4" s="3" t="s">
         <v>43</v>
       </c>
       <c r="O4" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="P4" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q4" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="R4" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="S4" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="T4" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="U4" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="V4" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="W4" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="X4" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y4" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="Z4" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="AA4" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="AB4" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="AC4" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="AD4" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="AE4" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="AF4" s="3" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="5" s="3" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="I5" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="J5" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="K5" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="L5" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="M5" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="P4" s="3" t="s">
+      <c r="N5" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="O5" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="Q4" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="R4" s="3" t="s">
+      <c r="P5" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="S4" s="3" t="s">
+      <c r="Q5" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="R5" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="T4" s="3" t="s">
+      <c r="S5" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="U4" s="3" t="s">
+      <c r="T5" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="V4" s="3" t="s">
+      <c r="U5" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="W4" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="X4" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="Y4" s="3" t="s">
+      <c r="V5" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="Z4" s="3" t="s">
+      <c r="W5" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="X5" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y5" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="AA4" s="3" t="s">
+      <c r="Z5" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="AB4" s="3" t="s">
+      <c r="AA5" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="AC4" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="AD4" s="3" t="s">
+      <c r="AB5" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="AE4" s="3" t="s">
+      <c r="AC5" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="AD5" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="AF4" s="3" t="s">
+      <c r="AE5" s="3" t="s">
         <v>100</v>
+      </c>
+      <c r="AF5" s="3" t="s">
+        <v>101</v>
       </c>
     </row>
   </sheetData>

--- a/models.xlsx
+++ b/models.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="101">
   <si>
     <t xml:space="preserve">modelPath</t>
   </si>
@@ -118,13 +118,13 @@
     <t xml:space="preserve">measuredPrecision</t>
   </si>
   <si>
-    <t xml:space="preserve">/home/libotadmin/NewYork</t>
+    <t xml:space="preserve">/tmp/tilesets/TilesetWithDiscreteLOD</t>
   </si>
   <si>
     <t xml:space="preserve">tileset.json</t>
   </si>
   <si>
-    <t xml:space="preserve">b6645aa5-4134-50f3-8cbc-faa0518c21bb</t>
+    <t xml:space="preserve">b6645aa5-4134-48f3-8cbc-faa0518c21bb</t>
   </si>
   <si>
     <t xml:space="preserve">GB</t>
@@ -202,10 +202,7 @@
     <t xml:space="preserve">Tactics</t>
   </si>
   <si>
-    <t xml:space="preserve">/tmp/tilesets/TilesetWithDiscreteLOD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dc61d24d-7426-5090-a48f-06c13be98b85</t>
+    <t xml:space="preserve">dc61d24d-7426-4490-a48f-06c13be98b85</t>
   </si>
   <si>
     <t xml:space="preserve">invoice</t>
@@ -271,7 +268,7 @@
     <t xml:space="preserve">monitor</t>
   </si>
   <si>
-    <t xml:space="preserve">Deda97ad-0912-5024-929c-02beba91c01d</t>
+    <t xml:space="preserve">deda97ad-0912-4524-929c-02beba91c01d</t>
   </si>
   <si>
     <t xml:space="preserve">portal</t>
@@ -428,7 +425,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -443,10 +440,6 @@
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
@@ -530,10 +523,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AF5"/>
+  <dimension ref="A1:AF4"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C5" activeCellId="0" sqref="C5"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -667,8 +660,8 @@
         <v>31</v>
       </c>
     </row>
-    <row r="2" s="3" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="4" t="s">
+    <row r="2" s="3" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="3" t="s">
         <v>32</v>
       </c>
       <c r="B2" s="3" t="s">
@@ -692,13 +685,13 @@
       <c r="H2" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="I2" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="J2" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="K2" s="5" t="s">
+      <c r="I2" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="K2" s="4" t="s">
         <v>40</v>
       </c>
       <c r="L2" s="3" t="s">
@@ -734,10 +727,10 @@
       <c r="V2" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="W2" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="X2" s="5" t="s">
+      <c r="W2" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="X2" s="4" t="s">
         <v>40</v>
       </c>
       <c r="Y2" s="3" t="s">
@@ -767,296 +760,198 @@
     </row>
     <row r="3" s="3" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="3" t="s">
-        <v>60</v>
+        <v>32</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>33</v>
       </c>
       <c r="C3" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="E3" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="F3" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="G3" s="3" t="s">
         <v>64</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>65</v>
       </c>
       <c r="H3" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="I3" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="J3" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="K3" s="5" t="s">
+      <c r="I3" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="K3" s="4" t="s">
         <v>40</v>
       </c>
       <c r="L3" s="3" t="s">
         <v>41</v>
       </c>
       <c r="M3" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="N3" s="3" t="s">
         <v>43</v>
       </c>
       <c r="O3" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="P3" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="P3" s="3" t="s">
+      <c r="Q3" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="Q3" s="3" t="s">
+      <c r="R3" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="R3" s="3" t="s">
+      <c r="S3" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="S3" s="3" t="s">
+      <c r="T3" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="T3" s="3" t="s">
+      <c r="U3" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="U3" s="3" t="s">
+      <c r="V3" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="V3" s="3" t="s">
+      <c r="W3" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="X3" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y3" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="W3" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="X3" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="Y3" s="3" t="s">
+      <c r="Z3" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="Z3" s="3" t="s">
+      <c r="AA3" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="AA3" s="3" t="s">
+      <c r="AB3" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="AB3" s="3" t="s">
+      <c r="AC3" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="AC3" s="3" t="s">
+      <c r="AD3" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="AD3" s="3" t="s">
+      <c r="AE3" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="AE3" s="3" t="s">
+      <c r="AF3" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="AF3" s="3" t="s">
-        <v>82</v>
-      </c>
     </row>
-    <row r="4" s="3" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="4" t="s">
+    <row r="4" s="3" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="3" t="s">
         <v>32</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>33</v>
       </c>
       <c r="C4" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="D4" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="E4" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="F4" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="G4" s="3" t="s">
         <v>85</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>86</v>
       </c>
       <c r="H4" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="I4" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="J4" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="K4" s="5" t="s">
+      <c r="I4" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="J4" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="K4" s="4" t="s">
         <v>40</v>
       </c>
       <c r="L4" s="3" t="s">
         <v>41</v>
       </c>
       <c r="M4" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="N4" s="3" t="s">
         <v>43</v>
       </c>
       <c r="O4" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="P4" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="P4" s="3" t="s">
+      <c r="Q4" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="R4" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="Q4" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="R4" s="3" t="s">
+      <c r="S4" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="S4" s="3" t="s">
+      <c r="T4" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="T4" s="3" t="s">
+      <c r="U4" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="U4" s="3" t="s">
+      <c r="V4" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="V4" s="3" t="s">
+      <c r="W4" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="X4" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y4" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="W4" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="X4" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="Y4" s="3" t="s">
+      <c r="Z4" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="Z4" s="3" t="s">
+      <c r="AA4" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="AA4" s="3" t="s">
+      <c r="AB4" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="AB4" s="3" t="s">
+      <c r="AC4" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="AD4" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="AC4" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="AD4" s="3" t="s">
+      <c r="AE4" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="AE4" s="3" t="s">
+      <c r="AF4" s="3" t="s">
         <v>100</v>
-      </c>
-      <c r="AF4" s="3" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="5" s="3" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="H5" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="I5" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="J5" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="K5" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="L5" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="M5" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="N5" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="O5" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="P5" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="Q5" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="R5" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="S5" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="T5" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="U5" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="V5" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="W5" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="X5" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="Y5" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="Z5" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="AA5" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="AB5" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="AC5" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="AD5" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="AE5" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="AF5" s="3" t="s">
-        <v>101</v>
       </c>
     </row>
   </sheetData>

--- a/models.xlsx
+++ b/models.xlsx
@@ -533,7 +533,7 @@
   <dimension ref="A1:AF5"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C5" activeCellId="0" sqref="C5"/>
+      <selection pane="topLeft" activeCell="C14" activeCellId="0" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
